--- a/Tração/Tração_06_C.xlsx
+++ b/Tração/Tração_06_C.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plda\Desktop\Resultados 2019_TraçãoPol Alunos_Comp\6-PTFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgia\Documents\Projetos\AnalysingPolymers\Tração\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD7F037-8668-421D-98D3-517D5090FCE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F6B68-DF44-40F8-88B1-0C5CAFB504AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tração_06_C" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -949,7 +957,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +996,8 @@
         <v>3.15E-3</v>
       </c>
       <c r="G2" s="2">
-        <v>8.5</v>
+        <f>((8.5/2)^2)*3.1415192</f>
+        <v>56.743690549999997</v>
       </c>
       <c r="H2" s="1">
         <v>50</v>
@@ -14988,6 +14997,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010064864F282976314B89D15DAB2B6734B2" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f788bfb9bc47115be98f9b5fa523fbba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e8c7c3d-e260-4705-a286-e09602e139ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59218437b229736cbd1114e2cc8acd40" ns2:_="">
     <xsd:import namespace="8e8c7c3d-e260-4705-a286-e09602e139ac"/>
@@ -15143,29 +15167,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{329C25FC-81E0-4CCF-B5AF-4BCC3EAA17A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F7D0C6F-B0A4-49CD-BC36-F221E3760F71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8e8c7c3d-e260-4705-a286-e09602e139ac"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B25ABB8D-64EC-4E5C-AB41-2A3AAB0BE059}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B25ABB8D-64EC-4E5C-AB41-2A3AAB0BE059}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F7D0C6F-B0A4-49CD-BC36-F221E3760F71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{329C25FC-81E0-4CCF-B5AF-4BCC3EAA17A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8e8c7c3d-e260-4705-a286-e09602e139ac"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>